--- a/predictions/deaths/d3_train_short_predictions.xlsx
+++ b/predictions/deaths/d3_train_short_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\predictions\deaths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5338,7 +5338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7914,7 +7913,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10526,15 +10525,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>387</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10556,16 +10555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>402</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>416</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15156,7 +15155,7 @@
   <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="L405" sqref="L405"/>
+      <selection activeCell="H396" sqref="H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19450,15 +19449,15 @@
         <v>44271</v>
       </c>
       <c r="C355" s="3">
-        <f>_xlfn.FORECAST.ETS(A355,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" ref="C355:C384" si="6">_xlfn.FORECAST.ETS(A355,$B$2:$B$354,$A$2:$A$354,7,1)</f>
         <v>5.6284468711672977</v>
       </c>
       <c r="D355" s="4">
-        <f>C355-_xlfn.FORECAST.ETS.CONFINT(A355,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" ref="D355:D384" si="7">C355-_xlfn.FORECAST.ETS.CONFINT(A355,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
         <v>4.7591490538650429</v>
       </c>
       <c r="E355" s="4">
-        <f>C355+_xlfn.FORECAST.ETS.CONFINT(A355,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" ref="E355:E384" si="8">C355+_xlfn.FORECAST.ETS.CONFINT(A355,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
         <v>6.4977446884695524</v>
       </c>
       <c r="G355">
@@ -19479,27 +19478,27 @@
         <v>44272</v>
       </c>
       <c r="C356" s="3">
-        <f>_xlfn.FORECAST.ETS(A356,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.0193021685188768</v>
       </c>
       <c r="D356" s="4">
-        <f>C356-_xlfn.FORECAST.ETS.CONFINT(A356,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.1228272302053091</v>
       </c>
       <c r="E356" s="4">
-        <f>C356+_xlfn.FORECAST.ETS.CONFINT(A356,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.9157771068324445</v>
       </c>
       <c r="G356">
-        <f t="shared" ref="G356:G384" si="6">EXP(C356)-1</f>
+        <f t="shared" ref="G356:G384" si="9">EXP(C356)-1</f>
         <v>410.29148341526712</v>
       </c>
       <c r="H356" s="7">
-        <f t="shared" ref="H356:H384" si="7">EXP(D356)-1</f>
+        <f t="shared" ref="H356:H384" si="10">EXP(D356)-1</f>
         <v>166.80913463832081</v>
       </c>
       <c r="I356" s="7">
-        <f t="shared" ref="I356:I384" si="8">EXP(E356)-1</f>
+        <f t="shared" ref="I356:I384" si="11">EXP(E356)-1</f>
         <v>1007.0540889178836</v>
       </c>
     </row>
@@ -19508,27 +19507,27 @@
         <v>44273</v>
       </c>
       <c r="C357" s="3">
-        <f>_xlfn.FORECAST.ETS(A357,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.9533365765919939</v>
       </c>
       <c r="D357" s="4">
-        <f>C357-_xlfn.FORECAST.ETS.CONFINT(A357,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.0302777742271472</v>
       </c>
       <c r="E357" s="4">
-        <f>C357+_xlfn.FORECAST.ETS.CONFINT(A357,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.8763953789568406</v>
       </c>
       <c r="G357">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>384.03589996079222</v>
       </c>
       <c r="H357" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>151.97549944561041</v>
       </c>
       <c r="I357" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>968.12672157234965</v>
       </c>
     </row>
@@ -19537,27 +19536,27 @@
         <v>44274</v>
       </c>
       <c r="C358" s="3">
-        <f>_xlfn.FORECAST.ETS(A358,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.8235512096526865</v>
       </c>
       <c r="D358" s="4">
-        <f>C358-_xlfn.FORECAST.ETS.CONFINT(A358,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8744511520609777</v>
       </c>
       <c r="E358" s="4">
-        <f>C358+_xlfn.FORECAST.ETS.CONFINT(A358,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.7726512672443953</v>
       </c>
       <c r="G358">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>337.17083934948448</v>
       </c>
       <c r="H358" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>129.90228804009308</v>
       </c>
       <c r="I358" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>872.62503970372552</v>
       </c>
     </row>
@@ -19566,27 +19565,27 @@
         <v>44275</v>
       </c>
       <c r="C359" s="3">
-        <f>_xlfn.FORECAST.ETS(A359,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.7932795442225116</v>
       </c>
       <c r="D359" s="4">
-        <f>C359-_xlfn.FORECAST.ETS.CONFINT(A359,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8186365703732239</v>
       </c>
       <c r="E359" s="4">
-        <f>C359+_xlfn.FORECAST.ETS.CONFINT(A359,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.7679225180717992</v>
       </c>
       <c r="G359">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>327.08723855439956</v>
       </c>
       <c r="H359" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>122.79618827187537</v>
       </c>
       <c r="I359" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>868.5036382368645</v>
       </c>
     </row>
@@ -19595,27 +19594,27 @@
         <v>44276</v>
       </c>
       <c r="C360" s="3">
-        <f>_xlfn.FORECAST.ETS(A360,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>4.8123235420386923</v>
       </c>
       <c r="D360" s="4">
-        <f>C360-_xlfn.FORECAST.ETS.CONFINT(A360,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>3.8125970367182558</v>
       </c>
       <c r="E360" s="4">
-        <f>C360+_xlfn.FORECAST.ETS.CONFINT(A360,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>5.8120500473591292</v>
       </c>
       <c r="G360">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>122.01712115144215</v>
       </c>
       <c r="H360" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>44.267848606613093</v>
       </c>
       <c r="I360" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>333.30376221099721</v>
       </c>
     </row>
@@ -19624,27 +19623,27 @@
         <v>44277</v>
       </c>
       <c r="C361" s="3">
-        <f>_xlfn.FORECAST.ETS(A361,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>3.5327904561431591</v>
       </c>
       <c r="D361" s="4">
-        <f>C361-_xlfn.FORECAST.ETS.CONFINT(A361,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>2.5084053197919607</v>
       </c>
       <c r="E361" s="4">
-        <f>C361+_xlfn.FORECAST.ETS.CONFINT(A361,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>4.5571755924943576</v>
       </c>
       <c r="G361">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.219322029095316</v>
       </c>
       <c r="H361" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.285323269517392</v>
       </c>
       <c r="I361" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>94.313894021522728</v>
       </c>
     </row>
@@ -19653,27 +19652,27 @@
         <v>44278</v>
       </c>
       <c r="C362" s="3">
-        <f>_xlfn.FORECAST.ETS(A362,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.7013603216127988</v>
       </c>
       <c r="D362" s="4">
-        <f>C362-_xlfn.FORECAST.ETS.CONFINT(A362,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.5858432332781103</v>
       </c>
       <c r="E362" s="4">
-        <f>C362+_xlfn.FORECAST.ETS.CONFINT(A362,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.8168774099474874</v>
       </c>
       <c r="G362">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>298.27423340069674</v>
       </c>
       <c r="H362" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97.085861542872053</v>
       </c>
       <c r="I362" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>912.12922544323067</v>
       </c>
     </row>
@@ -19682,27 +19681,27 @@
         <v>44279</v>
       </c>
       <c r="C363" s="3">
-        <f>_xlfn.FORECAST.ETS(A363,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.0922156189643779</v>
       </c>
       <c r="D363" s="4">
-        <f>C363-_xlfn.FORECAST.ETS.CONFINT(A363,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.9542041704643367</v>
       </c>
       <c r="E363" s="4">
-        <f>C363+_xlfn.FORECAST.ETS.CONFINT(A363,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.2302270674644191</v>
       </c>
       <c r="G363">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>441.40051705806843</v>
       </c>
       <c r="H363" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>140.76973692258821</v>
       </c>
       <c r="I363" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1379.5359432959665</v>
       </c>
     </row>
@@ -19711,27 +19710,27 @@
         <v>44280</v>
       </c>
       <c r="C364" s="3">
-        <f>_xlfn.FORECAST.ETS(A364,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.026250027037495</v>
       </c>
       <c r="D364" s="4">
-        <f>C364-_xlfn.FORECAST.ETS.CONFINT(A364,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8660112857818794</v>
       </c>
       <c r="E364" s="4">
-        <f>C364+_xlfn.FORECAST.ETS.CONFINT(A364,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.1864887682931107</v>
       </c>
       <c r="G364">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>413.15902856560382</v>
       </c>
       <c r="H364" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>128.80213931787284</v>
       </c>
       <c r="I364" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1320.4551150220257</v>
       </c>
     </row>
@@ -19740,27 +19739,27 @@
         <v>44281</v>
       </c>
       <c r="C365" s="3">
-        <f>_xlfn.FORECAST.ETS(A365,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.8964646600981876</v>
       </c>
       <c r="D365" s="4">
-        <f>C365-_xlfn.FORECAST.ETS.CONFINT(A365,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.7142499904616404</v>
       </c>
       <c r="E365" s="4">
-        <f>C365+_xlfn.FORECAST.ETS.CONFINT(A365,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.0786793297347348</v>
       </c>
       <c r="G365">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>362.7492148873888</v>
       </c>
       <c r="H365" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>110.52513488369303</v>
       </c>
       <c r="I365" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1185.4006393641976</v>
       </c>
     </row>
@@ -19769,27 +19768,27 @@
         <v>44282</v>
       </c>
       <c r="C366" s="3">
-        <f>_xlfn.FORECAST.ETS(A366,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.8661929946680127</v>
       </c>
       <c r="D366" s="4">
-        <f>C366-_xlfn.FORECAST.ETS.CONFINT(A366,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6622393687110755</v>
       </c>
       <c r="E366" s="4">
-        <f>C366+_xlfn.FORECAST.ETS.CONFINT(A366,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.0701466206249499</v>
       </c>
       <c r="G366">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>351.90291637298799</v>
       </c>
       <c r="H366" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>104.87290536207199</v>
       </c>
       <c r="I366" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1175.3204944517909</v>
       </c>
     </row>
@@ -19798,27 +19797,27 @@
         <v>44283</v>
       </c>
       <c r="C367" s="3">
-        <f>_xlfn.FORECAST.ETS(A367,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>4.8852369924841934</v>
       </c>
       <c r="D367" s="4">
-        <f>C367-_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>3.6597681543977956</v>
       </c>
       <c r="E367" s="4">
-        <f>C367+_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.1107058305705912</v>
       </c>
       <c r="G367">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>131.32182089567885</v>
       </c>
       <c r="H367" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37.852334084256178</v>
       </c>
       <c r="I367" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>449.65669020495676</v>
       </c>
     </row>
@@ -19827,27 +19826,27 @@
         <v>44284</v>
       </c>
       <c r="C368" s="3">
-        <f>_xlfn.FORECAST.ETS(A368,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>3.6057039065886602</v>
       </c>
       <c r="D368" s="4">
-        <f>C368-_xlfn.FORECAST.ETS.CONFINT(A368,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>2.3589314111191988</v>
       </c>
       <c r="E368" s="4">
-        <f>C368+_xlfn.FORECAST.ETS.CONFINT(A368,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>4.8524764020581213</v>
       </c>
       <c r="G368">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.807583841368626</v>
       </c>
       <c r="H368" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.5796401241307798</v>
       </c>
       <c r="I368" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>127.05711842213438</v>
       </c>
     </row>
@@ -19856,27 +19855,27 @@
         <v>44285</v>
       </c>
       <c r="C369" s="3">
-        <f>_xlfn.FORECAST.ETS(A369,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.7742737720582999</v>
       </c>
       <c r="D369" s="4">
-        <f>C369-_xlfn.FORECAST.ETS.CONFINT(A369,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4495600152849075</v>
       </c>
       <c r="E369" s="4">
-        <f>C369+_xlfn.FORECAST.ETS.CONFINT(A369,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.0989875288316924</v>
       </c>
       <c r="G369">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>320.91056935877862</v>
       </c>
       <c r="H369" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84.589277742536424</v>
       </c>
       <c r="I369" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1209.7406137555527</v>
       </c>
     </row>
@@ -19885,27 +19884,27 @@
         <v>44286</v>
       </c>
       <c r="C370" s="3">
-        <f>_xlfn.FORECAST.ETS(A370,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.165129069409879</v>
       </c>
       <c r="D370" s="4">
-        <f>C370-_xlfn.FORECAST.ETS.CONFINT(A370,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8203854733515552</v>
       </c>
       <c r="E370" s="4">
-        <f>C370+_xlfn.FORECAST.ETS.CONFINT(A370,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.5098726654682029</v>
       </c>
       <c r="G370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>474.86255827144419</v>
       </c>
       <c r="H370" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.01288522999428</v>
       </c>
       <c r="I370" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1824.9810175747336</v>
       </c>
     </row>
@@ -19914,27 +19913,27 @@
         <v>44287</v>
       </c>
       <c r="C371" s="3">
-        <f>_xlfn.FORECAST.ETS(A371,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.0991634774829961</v>
       </c>
       <c r="D371" s="4">
-        <f>C371-_xlfn.FORECAST.ETS.CONFINT(A371,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.7345364523806808</v>
       </c>
       <c r="E371" s="4">
-        <f>C371+_xlfn.FORECAST.ETS.CONFINT(A371,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.4637905025853115</v>
       </c>
       <c r="G371">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>444.48495597390036</v>
       </c>
       <c r="H371" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>112.81068981438858</v>
       </c>
       <c r="I371" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1742.7452169275748</v>
       </c>
     </row>
@@ -19943,27 +19942,27 @@
         <v>44288</v>
       </c>
       <c r="C372" s="3">
-        <f>_xlfn.FORECAST.ETS(A372,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.9693781105436887</v>
       </c>
       <c r="D372" s="4">
-        <f>C372-_xlfn.FORECAST.ETS.CONFINT(A372,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.5850072121782146</v>
       </c>
       <c r="E372" s="4">
-        <f>C372+_xlfn.FORECAST.ETS.CONFINT(A372,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.3537490089091628</v>
       </c>
       <c r="G372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>390.26227319219464</v>
       </c>
       <c r="H372" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97.003893961108844</v>
       </c>
       <c r="I372" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1561.0416723877645</v>
       </c>
     </row>
@@ -19972,27 +19971,27 @@
         <v>44289</v>
       </c>
       <c r="C373" s="3">
-        <f>_xlfn.FORECAST.ETS(A373,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.9391064451135138</v>
       </c>
       <c r="D373" s="4">
-        <f>C373-_xlfn.FORECAST.ETS.CONFINT(A373,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.5351248033880349</v>
       </c>
       <c r="E373" s="4">
-        <f>C373+_xlfn.FORECAST.ETS.CONFINT(A373,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.3430880868389927</v>
       </c>
       <c r="G373">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>378.59558845782516</v>
       </c>
       <c r="H373" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.235150641027985</v>
       </c>
       <c r="I373" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1544.4773203662821</v>
       </c>
     </row>
@@ -20001,27 +20000,27 @@
         <v>44290</v>
       </c>
       <c r="C374" s="3">
-        <f>_xlfn.FORECAST.ETS(A374,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>4.9581504429296945</v>
       </c>
       <c r="D374" s="4">
-        <f>C374-_xlfn.FORECAST.ETS.CONFINT(A374,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>3.5346851545647811</v>
       </c>
       <c r="E374" s="4">
-        <f>C374+_xlfn.FORECAST.ETS.CONFINT(A374,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.381615731294608</v>
       </c>
       <c r="G374">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>141.33030428011162</v>
       </c>
       <c r="H374" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33.284218785009003</v>
       </c>
       <c r="I374" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>589.88164276116049</v>
       </c>
     </row>
@@ -20030,27 +20029,27 @@
         <v>44291</v>
       </c>
       <c r="C375" s="3">
-        <f>_xlfn.FORECAST.ETS(A375,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>3.6786173570341614</v>
       </c>
       <c r="D375" s="4">
-        <f>C375-_xlfn.FORECAST.ETS.CONFINT(A375,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>2.2357898461266634</v>
       </c>
       <c r="E375" s="4">
-        <f>C375+_xlfn.FORECAST.ETS.CONFINT(A375,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>5.1214448679416593</v>
       </c>
       <c r="G375">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.591615143264676</v>
       </c>
       <c r="H375" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.3538670508868691</v>
       </c>
       <c r="I375" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>166.57732188461731</v>
       </c>
     </row>
@@ -20059,27 +20058,27 @@
         <v>44292</v>
       </c>
       <c r="C376" s="3">
-        <f>_xlfn.FORECAST.ETS(A376,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.8471872225038011</v>
       </c>
       <c r="D376" s="4">
-        <f>C376-_xlfn.FORECAST.ETS.CONFINT(A376,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.3346854605857317</v>
       </c>
       <c r="E376" s="4">
-        <f>C376+_xlfn.FORECAST.ETS.CONFINT(A376,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.3596889844218705</v>
       </c>
       <c r="G376">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>345.25905975055372</v>
       </c>
       <c r="H376" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75.300955457115194</v>
       </c>
       <c r="I376" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1570.3477733149027</v>
       </c>
     </row>
@@ -20088,27 +20087,27 @@
         <v>44293</v>
       </c>
       <c r="C377" s="3">
-        <f>_xlfn.FORECAST.ETS(A377,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.2380425198553811</v>
       </c>
       <c r="D377" s="4">
-        <f>C377-_xlfn.FORECAST.ETS.CONFINT(A377,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.7070358061936393</v>
       </c>
       <c r="E377" s="4">
-        <f>C377+_xlfn.FORECAST.ETS.CONFINT(A377,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.7690492335171228</v>
       </c>
       <c r="G377">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>510.85558251714519</v>
       </c>
       <c r="H377" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>109.72346717627012</v>
       </c>
       <c r="I377" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2365.2204953975297</v>
       </c>
     </row>
@@ -20117,27 +20116,27 @@
         <v>44294</v>
       </c>
       <c r="C378" s="3">
-        <f>_xlfn.FORECAST.ETS(A378,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.1720769279284982</v>
       </c>
       <c r="D378" s="4">
-        <f>C378-_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.62265287654823</v>
       </c>
       <c r="E378" s="4">
-        <f>C378+_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.7215009793087663</v>
       </c>
       <c r="G378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>478.18029624128326</v>
       </c>
       <c r="H378" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100.7636407282118</v>
       </c>
       <c r="I378" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2255.343765443019</v>
       </c>
     </row>
@@ -20146,27 +20145,27 @@
         <v>44295</v>
       </c>
       <c r="C379" s="3">
-        <f>_xlfn.FORECAST.ETS(A379,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.0422915609891907</v>
       </c>
       <c r="D379" s="4">
-        <f>C379-_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4745342161435007</v>
       </c>
       <c r="E379" s="4">
-        <f>C379+_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.6100489058348808</v>
       </c>
       <c r="G379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>419.85634870969233</v>
       </c>
       <c r="H379" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86.75371662443888</v>
       </c>
       <c r="I379" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2017.3768057058821</v>
       </c>
     </row>
@@ -20175,27 +20174,27 @@
         <v>44296</v>
       </c>
       <c r="C380" s="3">
-        <f>_xlfn.FORECAST.ETS(A380,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.0120198955590158</v>
       </c>
       <c r="D380" s="4">
-        <f>C380-_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4260099105335087</v>
       </c>
       <c r="E380" s="4">
-        <f>C380+_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.598029880584523</v>
       </c>
       <c r="G380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>407.30722584437075</v>
       </c>
       <c r="H380" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82.597190288239332</v>
       </c>
       <c r="I380" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1993.2630858991902</v>
       </c>
     </row>
@@ -20204,27 +20203,27 @@
         <v>44297</v>
       </c>
       <c r="C381" s="3">
-        <f>_xlfn.FORECAST.ETS(A381,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.0310638933751974</v>
       </c>
       <c r="D381" s="4">
-        <f>C381-_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>3.4268786973326595</v>
       </c>
       <c r="E381" s="4">
-        <f>C381+_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>6.6352490894177354</v>
       </c>
       <c r="G381">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>152.09580369544886</v>
       </c>
       <c r="H381" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29.780417654250446</v>
       </c>
       <c r="I381" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>760.46871600096154</v>
       </c>
     </row>
@@ -20233,27 +20232,27 @@
         <v>44298</v>
       </c>
       <c r="C382" s="3">
-        <f>_xlfn.FORECAST.ETS(A382,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>3.7515308074796634</v>
       </c>
       <c r="D382" s="4">
-        <f>C382-_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>2.1292447613462202</v>
       </c>
       <c r="E382" s="4">
-        <f>C382+_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>5.373816853613107</v>
       </c>
       <c r="G382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41.586223437210592</v>
       </c>
       <c r="H382" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.4085139780123672</v>
       </c>
       <c r="I382" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>214.68453491145016</v>
       </c>
     </row>
@@ -20262,27 +20261,27 @@
         <v>44299</v>
       </c>
       <c r="C383" s="3">
-        <f>_xlfn.FORECAST.ETS(A383,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>5.9201006729493031</v>
       </c>
       <c r="D383" s="4">
-        <f>C383-_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.2338972756056261</v>
       </c>
       <c r="E383" s="4">
-        <f>C383+_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.6063040702929801</v>
       </c>
       <c r="G383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>371.44920754904081</v>
       </c>
       <c r="H383" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>67.985564709770571</v>
       </c>
       <c r="I383" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2009.8324515065033</v>
       </c>
     </row>
@@ -20291,27 +20290,27 @@
         <v>44300</v>
       </c>
       <c r="C384" s="3">
-        <f>_xlfn.FORECAST.ETS(A384,$B$2:$B$354,$A$2:$A$354,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.3109559703008822</v>
       </c>
       <c r="D384" s="4">
-        <f>C384-_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6072755111435875</v>
       </c>
       <c r="E384" s="4">
-        <f>C384+_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$354,$A$2:$A$354,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.0146364294581769</v>
       </c>
       <c r="G384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>549.57102686468659</v>
       </c>
       <c r="H384" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>99.2107542908592</v>
       </c>
       <c r="I384" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3023.9094298104242</v>
       </c>
     </row>
@@ -20346,7 +20345,7 @@
         <v>453</v>
       </c>
       <c r="C389">
-        <f t="shared" ref="C389:C417" si="9">G356</f>
+        <f t="shared" ref="C389:C417" si="12">G356</f>
         <v>410.29148341526712</v>
       </c>
     </row>
@@ -20358,7 +20357,7 @@
         <v>356</v>
       </c>
       <c r="C390">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>384.03589996079222</v>
       </c>
     </row>
@@ -20370,7 +20369,7 @@
         <v>419</v>
       </c>
       <c r="C391">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>337.17083934948448</v>
       </c>
     </row>
@@ -20382,7 +20381,7 @@
         <v>349</v>
       </c>
       <c r="C392">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>327.08723855439956</v>
       </c>
     </row>
@@ -20394,7 +20393,7 @@
         <v>140</v>
       </c>
       <c r="C393">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>122.01712115144215</v>
       </c>
     </row>
@@ -20406,7 +20405,7 @@
         <v>65</v>
       </c>
       <c r="C394">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>33.219322029095316</v>
       </c>
     </row>
@@ -20418,7 +20417,7 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>298.27423340069674</v>
       </c>
     </row>
@@ -20430,7 +20429,7 @@
         <v>575</v>
       </c>
       <c r="C396">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>441.40051705806843</v>
       </c>
     </row>
@@ -20442,7 +20441,7 @@
         <v>520</v>
       </c>
       <c r="C397">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>413.15902856560382</v>
       </c>
     </row>
@@ -20454,7 +20453,7 @@
         <v>443</v>
       </c>
       <c r="C398">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>362.7492148873888</v>
       </c>
     </row>
@@ -20466,7 +20465,7 @@
         <v>448</v>
       </c>
       <c r="C399">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>351.90291637298799</v>
       </c>
     </row>
@@ -20478,7 +20477,7 @@
         <v>131</v>
       </c>
       <c r="C400">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>131.32182089567885</v>
       </c>
     </row>
@@ -20490,7 +20489,7 @@
         <v>48</v>
       </c>
       <c r="C401">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>35.807583841368626</v>
       </c>
     </row>
@@ -20502,7 +20501,7 @@
         <v>461</v>
       </c>
       <c r="C402">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>320.91056935877862</v>
       </c>
     </row>
@@ -20514,7 +20513,7 @@
         <v>653</v>
       </c>
       <c r="C403">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>474.86255827144419</v>
       </c>
     </row>
@@ -20526,7 +20525,7 @@
         <v>621</v>
       </c>
       <c r="C404">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>444.48495597390036</v>
       </c>
     </row>
@@ -20538,7 +20537,7 @@
         <v>497</v>
       </c>
       <c r="C405">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>390.26227319219464</v>
       </c>
     </row>
@@ -20550,7 +20549,7 @@
         <v>571</v>
       </c>
       <c r="C406">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>378.59558845782516</v>
       </c>
     </row>
@@ -20562,7 +20561,7 @@
         <v>204</v>
       </c>
       <c r="C407">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>141.33030428011162</v>
       </c>
     </row>
@@ -20574,7 +20573,7 @@
         <v>64</v>
       </c>
       <c r="C408">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>38.591615143264676</v>
       </c>
     </row>
@@ -20586,7 +20585,7 @@
         <v>60</v>
       </c>
       <c r="C409">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>345.25905975055372</v>
       </c>
     </row>
@@ -20598,7 +20597,7 @@
         <v>638</v>
       </c>
       <c r="C410">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>510.85558251714519</v>
       </c>
     </row>
@@ -20610,7 +20609,7 @@
         <v>954</v>
       </c>
       <c r="C411">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>478.18029624128326</v>
       </c>
     </row>
@@ -20622,7 +20621,7 @@
         <v>768</v>
       </c>
       <c r="C412">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>419.85634870969233</v>
       </c>
     </row>
@@ -20634,7 +20633,7 @@
         <v>749</v>
       </c>
       <c r="C413">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>407.30722584437075</v>
       </c>
     </row>
@@ -20646,7 +20645,7 @@
         <v>245</v>
       </c>
       <c r="C414">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>152.09580369544886</v>
       </c>
     </row>
@@ -20658,7 +20657,7 @@
         <v>61</v>
       </c>
       <c r="C415">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41.586223437210592</v>
       </c>
     </row>
@@ -20670,7 +20669,7 @@
         <v>644</v>
       </c>
       <c r="C416">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>371.44920754904081</v>
       </c>
     </row>
@@ -20682,7 +20681,7 @@
         <v>803</v>
       </c>
       <c r="C417">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>549.57102686468659</v>
       </c>
     </row>
